--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.3675175895664576</v>
+        <v>-0.03650901789638317</v>
       </c>
       <c r="C2">
-        <v>0.3331433060161106</v>
+        <v>0.02406232654215451</v>
       </c>
       <c r="D2">
-        <v>-0.3762295942537843</v>
+        <v>-0.04666695993043723</v>
       </c>
       <c r="E2">
-        <v>-0.4429097606448127</v>
+        <v>-0.05961988998224344</v>
       </c>
       <c r="F2">
-        <v>-0.5650112991390943</v>
+        <v>-0.04147221074195915</v>
       </c>
       <c r="G2">
-        <v>-0.6159745211125212</v>
+        <v>-0.07563128638559323</v>
       </c>
       <c r="H2">
-        <v>-0.1755962520860823</v>
+        <v>-0.03744803663081631</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.003637995611555227</v>
+        <v>-0.0314638815017911</v>
       </c>
       <c r="C3">
-        <v>0.003974397217411246</v>
+        <v>0.02688815856654482</v>
       </c>
       <c r="D3">
-        <v>-0.003378752412893695</v>
+        <v>-0.03123474906368148</v>
       </c>
       <c r="E3">
-        <v>-0.006733467359751712</v>
+        <v>-0.05579990792149635</v>
       </c>
       <c r="F3">
-        <v>-0.0046480544500673</v>
+        <v>-0.05221499782478377</v>
       </c>
       <c r="G3">
-        <v>-0.006756935647554725</v>
+        <v>-0.06272262750419164</v>
       </c>
       <c r="H3">
-        <v>-0.004491575871430391</v>
+        <v>-0.04147063723294442</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.004476589737531371</v>
+        <v>-0.00313841642838262</v>
       </c>
       <c r="C4">
-        <v>0.004147480497889696</v>
+        <v>0.003598687695777413</v>
       </c>
       <c r="D4">
-        <v>-0.004193052018007105</v>
+        <v>-0.004613621651791671</v>
       </c>
       <c r="E4">
-        <v>-0.007514113632841156</v>
+        <v>-0.006055329532730281</v>
       </c>
       <c r="F4">
-        <v>-0.00526247854018764</v>
+        <v>-0.003971920796609876</v>
       </c>
       <c r="G4">
-        <v>-0.00727212090614352</v>
+        <v>-0.006714925424763814</v>
       </c>
       <c r="H4">
-        <v>-0.004991475077921712</v>
+        <v>-0.004864308076500219</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.0039887251958025</v>
+        <v>-0.217241272854263</v>
       </c>
       <c r="C5">
-        <v>0.00221170253573022</v>
+        <v>0.4339856090480839</v>
       </c>
       <c r="D5">
-        <v>-0.004766134988972856</v>
+        <v>-0.3459428826151505</v>
       </c>
       <c r="E5">
-        <v>-0.006204973998905798</v>
+        <v>-0.285332680242292</v>
       </c>
       <c r="F5">
-        <v>-0.004100710608447007</v>
+        <v>-0.239984631733959</v>
       </c>
       <c r="G5">
-        <v>-0.007322009411287509</v>
+        <v>-0.4081456526669244</v>
       </c>
       <c r="H5">
-        <v>-0.006225443150120057</v>
+        <v>-0.1909067620040346</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1455016743277427</v>
+        <v>-0.2404526312221309</v>
       </c>
       <c r="C6">
-        <v>0.1428843484775356</v>
+        <v>0.367955730804523</v>
       </c>
       <c r="D6">
-        <v>-0.1536470952137956</v>
+        <v>-0.2913305330560289</v>
       </c>
       <c r="E6">
-        <v>-0.2666250799351177</v>
+        <v>-0.3060229131008416</v>
       </c>
       <c r="F6">
-        <v>-0.1923479230868265</v>
+        <v>-0.4713995656655222</v>
       </c>
       <c r="G6">
-        <v>-0.2294703007048554</v>
+        <v>-0.4431742312082809</v>
       </c>
       <c r="H6">
-        <v>-0.1511159592782741</v>
+        <v>-0.06614783324896742</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.03747445583560322</v>
+        <v>-0.2749805537193508</v>
       </c>
       <c r="C7">
-        <v>0.02633814671361321</v>
+        <v>0.4925241100305702</v>
       </c>
       <c r="D7">
-        <v>-0.0327200270286235</v>
+        <v>-0.3543691778033763</v>
       </c>
       <c r="E7">
-        <v>-0.05397214123944745</v>
+        <v>-0.3572662745809511</v>
       </c>
       <c r="F7">
-        <v>-0.04809613618812678</v>
+        <v>-0.3615794211181001</v>
       </c>
       <c r="G7">
-        <v>-0.06488972236080726</v>
+        <v>-0.5049594948817875</v>
       </c>
       <c r="H7">
-        <v>-0.05241575571118579</v>
+        <v>-0.1020952506009169</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.1361353198258223</v>
+        <v>-0.003814548513458962</v>
       </c>
       <c r="C8">
-        <v>0.1222214846117065</v>
+        <v>0.00297153008058448</v>
       </c>
       <c r="D8">
-        <v>-0.1237306265817805</v>
+        <v>-0.003411615993617472</v>
       </c>
       <c r="E8">
-        <v>-0.2070931285609603</v>
+        <v>-0.006899961765973617</v>
       </c>
       <c r="F8">
-        <v>-0.2055955452211233</v>
+        <v>-0.005900786991175529</v>
       </c>
       <c r="G8">
-        <v>-0.2697661693198576</v>
+        <v>-0.008085296154868095</v>
       </c>
       <c r="H8">
-        <v>-0.1711582914285481</v>
+        <v>-0.004634723348071711</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.004037227542978951</v>
+        <v>-0.306914673469063</v>
       </c>
       <c r="C9">
-        <v>0.003511603176439562</v>
+        <v>0.4115351029990647</v>
       </c>
       <c r="D9">
-        <v>-0.004178164018209292</v>
+        <v>-0.2965812401883866</v>
       </c>
       <c r="E9">
-        <v>-0.006983846144200138</v>
+        <v>-0.3913008434617311</v>
       </c>
       <c r="F9">
-        <v>-0.004148106987275997</v>
+        <v>-0.4543892211848723</v>
       </c>
       <c r="G9">
-        <v>-0.007602580944069981</v>
+        <v>-0.5965186433126762</v>
       </c>
       <c r="H9">
-        <v>-0.004880766433438345</v>
+        <v>-0.03711897210839356</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2126260232581317</v>
+        <v>-0.1462059301211029</v>
       </c>
       <c r="C10">
-        <v>0.3514001278525188</v>
+        <v>0.1234701052258166</v>
       </c>
       <c r="D10">
-        <v>-0.227520154576918</v>
+        <v>-0.11670771121157</v>
       </c>
       <c r="E10">
-        <v>-0.2885862941882627</v>
+        <v>-0.2087799882819389</v>
       </c>
       <c r="F10">
-        <v>-0.3822786566480736</v>
+        <v>-0.2344340978568841</v>
       </c>
       <c r="G10">
-        <v>-0.3385960439689284</v>
+        <v>-0.3063048902818712</v>
       </c>
       <c r="H10">
-        <v>-0.1634481766669713</v>
+        <v>-0.1590905784120032</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.03899570413896185</v>
+        <v>-0.004033125234718991</v>
       </c>
       <c r="C11">
-        <v>0.02576226245499599</v>
+        <v>0.003548210452509814</v>
       </c>
       <c r="D11">
-        <v>-0.03794001250929085</v>
+        <v>-0.004414799896821374</v>
       </c>
       <c r="E11">
-        <v>-0.05708345033088032</v>
+        <v>-0.007765535680040469</v>
       </c>
       <c r="F11">
-        <v>-0.04571212313437262</v>
+        <v>-0.004958893558489402</v>
       </c>
       <c r="G11">
-        <v>-0.07072279452947025</v>
+        <v>-0.008113720990430381</v>
       </c>
       <c r="H11">
-        <v>-0.04521683996172034</v>
+        <v>-0.004198163057696919</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.2812200037641297</v>
+        <v>-0.2530859567109751</v>
       </c>
       <c r="C12">
-        <v>0.2564622142153389</v>
+        <v>0.353129106048221</v>
       </c>
       <c r="D12">
-        <v>-0.2960285532886496</v>
+        <v>-0.4159554776330897</v>
       </c>
       <c r="E12">
-        <v>-0.4609127483174167</v>
+        <v>-0.3214706571090025</v>
       </c>
       <c r="F12">
-        <v>-0.3532552722954419</v>
+        <v>-0.4984517480449555</v>
       </c>
       <c r="G12">
-        <v>-0.4412674081017458</v>
+        <v>-0.4278799126989952</v>
       </c>
       <c r="H12">
-        <v>-0.103132424090735</v>
+        <v>-0.02945129752170183</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.004456980104986419</v>
+        <v>-0.00376471182897356</v>
       </c>
       <c r="C13">
-        <v>0.003945165961131091</v>
+        <v>0.004009761236869283</v>
       </c>
       <c r="D13">
-        <v>-0.003644147139961254</v>
+        <v>-0.002944403872068438</v>
       </c>
       <c r="E13">
-        <v>-0.007471219862573732</v>
+        <v>-0.007274694438721901</v>
       </c>
       <c r="F13">
-        <v>-0.005004615030772705</v>
+        <v>-0.005621008824434146</v>
       </c>
       <c r="G13">
-        <v>-0.007778967840958496</v>
+        <v>-0.007483217090736602</v>
       </c>
       <c r="H13">
-        <v>-0.005052936394278716</v>
+        <v>-0.004653890781619451</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.1278571611624699</v>
+        <v>-0.00372138467881482</v>
       </c>
       <c r="C14">
-        <v>0.1020854844215871</v>
+        <v>0.004025888863950333</v>
       </c>
       <c r="D14">
-        <v>-0.1294706162538399</v>
+        <v>-0.002885103291291719</v>
       </c>
       <c r="E14">
-        <v>-0.2211496642028579</v>
+        <v>-0.007708196448383513</v>
       </c>
       <c r="F14">
-        <v>-0.2294883812894831</v>
+        <v>-0.005333188811761925</v>
       </c>
       <c r="G14">
-        <v>-0.2212560208794775</v>
+        <v>-0.007167630074722381</v>
       </c>
       <c r="H14">
-        <v>-0.1534791336470484</v>
+        <v>-0.004616794254921401</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.004046572435524873</v>
+        <v>-0.1215430289836484</v>
       </c>
       <c r="C15">
-        <v>0.003056369821518883</v>
+        <v>0.1497545114953733</v>
       </c>
       <c r="D15">
-        <v>-0.004393270160564838</v>
+        <v>-0.1552808261050869</v>
       </c>
       <c r="E15">
-        <v>-0.005956040165220334</v>
+        <v>-0.2590964701437322</v>
       </c>
       <c r="F15">
-        <v>-0.003747991431283627</v>
+        <v>-0.1558714965985517</v>
       </c>
       <c r="G15">
-        <v>-0.008433647004824045</v>
+        <v>-0.2404293903658268</v>
       </c>
       <c r="H15">
-        <v>-0.005333864807026876</v>
+        <v>-0.1133456846083919</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.00457640405279314</v>
+        <v>-0.1358450678129788</v>
       </c>
       <c r="C16">
-        <v>0.004407684400029374</v>
+        <v>0.1191764235872928</v>
       </c>
       <c r="D16">
-        <v>-0.00312806798380323</v>
+        <v>-0.1858421160477177</v>
       </c>
       <c r="E16">
-        <v>-0.007614451616867927</v>
+        <v>-0.2753573510189152</v>
       </c>
       <c r="F16">
-        <v>-0.004597338539296883</v>
+        <v>-0.1349543789467334</v>
       </c>
       <c r="G16">
-        <v>-0.007888324984527788</v>
+        <v>-0.2614008427237859</v>
       </c>
       <c r="H16">
-        <v>-0.005513248744346724</v>
+        <v>-0.1281555166669655</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2791695615737347</v>
+        <v>-0.004244398295579501</v>
       </c>
       <c r="C17">
-        <v>0.4586558477877781</v>
+        <v>0.00282323665048771</v>
       </c>
       <c r="D17">
-        <v>-0.3545294696613461</v>
+        <v>-0.004687278831162252</v>
       </c>
       <c r="E17">
-        <v>-0.3532692733087916</v>
+        <v>-0.007548329411046262</v>
       </c>
       <c r="F17">
-        <v>-0.419694182007341</v>
+        <v>-0.00588138750672867</v>
       </c>
       <c r="G17">
-        <v>-0.5499225745225673</v>
+        <v>-0.008032006129727348</v>
       </c>
       <c r="H17">
-        <v>0.01123793691330074</v>
+        <v>-0.00500566517023242</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.004820832350588499</v>
+        <v>-0.2084934614763702</v>
       </c>
       <c r="C18">
-        <v>0.004448608942324039</v>
+        <v>0.2744400837099185</v>
       </c>
       <c r="D18">
-        <v>-0.003475667510670896</v>
+        <v>-0.2659032851199241</v>
       </c>
       <c r="E18">
-        <v>-0.007754099945429377</v>
+        <v>-0.3197178314217795</v>
       </c>
       <c r="F18">
-        <v>-0.005246516148224486</v>
+        <v>-0.4053851114928517</v>
       </c>
       <c r="G18">
-        <v>-0.007935148056016791</v>
+        <v>-0.4650713739323564</v>
       </c>
       <c r="H18">
-        <v>-0.005419483449751332</v>
+        <v>-0.1105704096117603</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.004362264526729829</v>
+        <v>-0.1896922821946568</v>
       </c>
       <c r="C19">
-        <v>0.003364105823442541</v>
+        <v>0.3468005672415987</v>
       </c>
       <c r="D19">
-        <v>-0.00374809905432729</v>
+        <v>-0.3518446872551472</v>
       </c>
       <c r="E19">
-        <v>-0.007057419552617948</v>
+        <v>-0.2581383561600728</v>
       </c>
       <c r="F19">
-        <v>-0.005230216842153333</v>
+        <v>-0.2765150334101982</v>
       </c>
       <c r="G19">
-        <v>-0.00788752807071199</v>
+        <v>-0.4179730583482973</v>
       </c>
       <c r="H19">
-        <v>-0.005194094075919125</v>
+        <v>-0.03817512807014067</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.004137958834752174</v>
+        <v>-0.003600790605345808</v>
       </c>
       <c r="C20">
-        <v>0.002871077533156191</v>
+        <v>0.004095067219092681</v>
       </c>
       <c r="D20">
-        <v>-0.003914275992861972</v>
+        <v>-0.00526602971535802</v>
       </c>
       <c r="E20">
-        <v>-0.006736516964975629</v>
+        <v>-0.006893454607728284</v>
       </c>
       <c r="F20">
-        <v>-0.004356811861904879</v>
+        <v>-0.004420979998149702</v>
       </c>
       <c r="G20">
-        <v>-0.007939361268459656</v>
+        <v>-0.006844992713730667</v>
       </c>
       <c r="H20">
-        <v>-0.005551444133157564</v>
+        <v>-0.004553268577168887</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.3141261399435301</v>
+        <v>-0.003474703391404095</v>
       </c>
       <c r="C21">
-        <v>0.2989187554700273</v>
+        <v>0.003410730420020101</v>
       </c>
       <c r="D21">
-        <v>-0.3662437230369543</v>
+        <v>-0.003700465075708744</v>
       </c>
       <c r="E21">
-        <v>-0.4851376912429756</v>
+        <v>-0.007218752675007492</v>
       </c>
       <c r="F21">
-        <v>-0.4435455439641681</v>
+        <v>-0.00481981859840705</v>
       </c>
       <c r="G21">
-        <v>-0.352966826603659</v>
+        <v>-0.00697591221859536</v>
       </c>
       <c r="H21">
-        <v>-0.2517370057332632</v>
+        <v>-0.004844143147137227</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.004352222543407966</v>
+        <v>-0.003528155912751127</v>
       </c>
       <c r="C22">
-        <v>0.002428936645687655</v>
+        <v>0.003368931154131833</v>
       </c>
       <c r="D22">
-        <v>-0.003855915888855976</v>
+        <v>-0.004488696966468136</v>
       </c>
       <c r="E22">
-        <v>-0.00616842518544142</v>
+        <v>-0.006515403405184609</v>
       </c>
       <c r="F22">
-        <v>-0.005365638024427772</v>
+        <v>-0.004762609931882258</v>
       </c>
       <c r="G22">
-        <v>-0.007810868595039439</v>
+        <v>-0.007632015142379839</v>
       </c>
       <c r="H22">
-        <v>-0.0065182602769947</v>
+        <v>-0.004485920113887747</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.03635447740384377</v>
+        <v>-0.00357373871963721</v>
       </c>
       <c r="C23">
-        <v>0.02883245644794072</v>
+        <v>0.00359977441327256</v>
       </c>
       <c r="D23">
-        <v>-0.03648778953722909</v>
+        <v>-0.003837149552147154</v>
       </c>
       <c r="E23">
-        <v>-0.06624213472704975</v>
+        <v>-0.007304226667117488</v>
       </c>
       <c r="F23">
-        <v>-0.03727462046727887</v>
+        <v>-0.004398068707702262</v>
       </c>
       <c r="G23">
-        <v>-0.06511120803537122</v>
+        <v>-0.007477773743262296</v>
       </c>
       <c r="H23">
-        <v>-0.03723350140870327</v>
+        <v>-0.004630927188491531</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.03714328269172346</v>
+        <v>-0.1762205842220612</v>
       </c>
       <c r="C24">
-        <v>0.02563086752931407</v>
+        <v>0.3513218430239686</v>
       </c>
       <c r="D24">
-        <v>-0.04272233002082669</v>
+        <v>-0.2202707740938401</v>
       </c>
       <c r="E24">
-        <v>-0.0509837659374226</v>
+        <v>-0.2733370727089356</v>
       </c>
       <c r="F24">
-        <v>-0.05371404502544138</v>
+        <v>-0.2720274217054809</v>
       </c>
       <c r="G24">
-        <v>-0.05727397680018417</v>
+        <v>-0.3465964291523923</v>
       </c>
       <c r="H24">
-        <v>-0.05097233747620315</v>
+        <v>-0.1872336572607964</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.04109470766975457</v>
+        <v>-0.03039690326619868</v>
       </c>
       <c r="C25">
-        <v>0.02128118111214502</v>
+        <v>0.027011105395701</v>
       </c>
       <c r="D25">
-        <v>-0.03886101941494012</v>
+        <v>-0.03690412804204478</v>
       </c>
       <c r="E25">
-        <v>-0.05433411101357021</v>
+        <v>-0.05800621095915168</v>
       </c>
       <c r="F25">
-        <v>-0.04787272627838279</v>
+        <v>-0.05302890111196508</v>
       </c>
       <c r="G25">
-        <v>-0.07030637937524978</v>
+        <v>-0.05769952590918318</v>
       </c>
       <c r="H25">
-        <v>-0.05546064257802964</v>
+        <v>-0.03432466030034701</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.04337726967624345</v>
+        <v>-0.2395826750139041</v>
       </c>
       <c r="C26">
-        <v>0.02288595522179774</v>
+        <v>0.4669633741899197</v>
       </c>
       <c r="D26">
-        <v>-0.04016457137846532</v>
+        <v>-0.4291741181227166</v>
       </c>
       <c r="E26">
-        <v>-0.06587473459114454</v>
+        <v>-0.3478207970648269</v>
       </c>
       <c r="F26">
-        <v>-0.04873815147611486</v>
+        <v>-0.3004752201319689</v>
       </c>
       <c r="G26">
-        <v>-0.0720862939887795</v>
+        <v>-0.3978782782601573</v>
       </c>
       <c r="H26">
-        <v>-0.04640585986122848</v>
+        <v>-0.1348666576958231</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.3352123441481757</v>
+        <v>-0.2437608530099412</v>
       </c>
       <c r="C27">
-        <v>0.3901897199602175</v>
+        <v>0.3624803233575337</v>
       </c>
       <c r="D27">
-        <v>-0.3496987617878177</v>
+        <v>-0.3896820855388651</v>
       </c>
       <c r="E27">
-        <v>-0.3373824851303918</v>
+        <v>-0.3733718451455302</v>
       </c>
       <c r="F27">
-        <v>-0.4502480322635596</v>
+        <v>-0.3840908047149305</v>
       </c>
       <c r="G27">
-        <v>-0.6450599616274497</v>
+        <v>-0.43733189347563</v>
       </c>
       <c r="H27">
-        <v>-0.1812387596743781</v>
+        <v>-0.0256045492858267</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.03184483103952265</v>
+        <v>-0.2641800845974796</v>
       </c>
       <c r="C28">
-        <v>0.03393598667455173</v>
+        <v>0.2645235085041772</v>
       </c>
       <c r="D28">
-        <v>-0.03262812385261588</v>
+        <v>-0.2188615835257321</v>
       </c>
       <c r="E28">
-        <v>-0.06033841872036022</v>
+        <v>-0.408493650622302</v>
       </c>
       <c r="F28">
-        <v>-0.0399457806600217</v>
+        <v>-0.3674915852338053</v>
       </c>
       <c r="G28">
-        <v>-0.05997017689222214</v>
+        <v>-0.4966587258706208</v>
       </c>
       <c r="H28">
-        <v>-0.02968541295418983</v>
+        <v>-0.1006257500028705</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.003927252784536318</v>
+        <v>-0.003823417339442599</v>
       </c>
       <c r="C29">
-        <v>0.00299678402284404</v>
+        <v>0.004199321495657309</v>
       </c>
       <c r="D29">
-        <v>-0.004272675490535205</v>
+        <v>-0.005131842262304906</v>
       </c>
       <c r="E29">
-        <v>-0.006349444029365947</v>
+        <v>-0.00769178987689505</v>
       </c>
       <c r="F29">
-        <v>-0.00464627762584769</v>
+        <v>-0.004328614535649364</v>
       </c>
       <c r="G29">
-        <v>-0.007835785494159987</v>
+        <v>-0.006887616186991167</v>
       </c>
       <c r="H29">
-        <v>-0.004689115679444441</v>
+        <v>-0.004578386383203419</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.1636034619120007</v>
+        <v>-0.2507112360004559</v>
       </c>
       <c r="C30">
-        <v>0.1472919513756624</v>
+        <v>0.2519858724020538</v>
       </c>
       <c r="D30">
-        <v>-0.1743300479450166</v>
+        <v>-0.3729486594243474</v>
       </c>
       <c r="E30">
-        <v>-0.2131186229656102</v>
+        <v>-0.3665603207443497</v>
       </c>
       <c r="F30">
-        <v>-0.2324911802144457</v>
+        <v>-0.4007907876611885</v>
       </c>
       <c r="G30">
-        <v>-0.2611864607607319</v>
+        <v>-0.3779030446431913</v>
       </c>
       <c r="H30">
-        <v>-0.1883173093784276</v>
+        <v>-0.08992027363030052</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.004055285729158736</v>
+        <v>-0.003169992937705804</v>
       </c>
       <c r="C31">
-        <v>0.002961889530606342</v>
+        <v>0.00373814547624076</v>
       </c>
       <c r="D31">
-        <v>-0.003567030797257281</v>
+        <v>-0.004004869504981923</v>
       </c>
       <c r="E31">
-        <v>-0.00746173577417928</v>
+        <v>-0.006977955388068952</v>
       </c>
       <c r="F31">
-        <v>-0.005258534817078163</v>
+        <v>-0.005043515479410145</v>
       </c>
       <c r="G31">
-        <v>-0.007294071112455049</v>
+        <v>-0.005993661098620258</v>
       </c>
       <c r="H31">
-        <v>-0.004513333849689111</v>
+        <v>-0.004148642519085092</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.2938382464223963</v>
+        <v>-0.0330115345005654</v>
       </c>
       <c r="C32">
-        <v>0.3238230085421162</v>
+        <v>0.02717628071275726</v>
       </c>
       <c r="D32">
-        <v>-0.3073466688883524</v>
+        <v>-0.04132693480022242</v>
       </c>
       <c r="E32">
-        <v>-0.3710504299973303</v>
+        <v>-0.06681641104185507</v>
       </c>
       <c r="F32">
-        <v>-0.4441398720333355</v>
+        <v>-0.03748522817212291</v>
       </c>
       <c r="G32">
-        <v>-0.5499492066122266</v>
+        <v>-0.06259415264042734</v>
       </c>
       <c r="H32">
-        <v>-0.1191937749732906</v>
+        <v>-0.03976497905391885</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.0342507558163864</v>
+        <v>-0.2103246494550903</v>
       </c>
       <c r="C33">
-        <v>0.02929355112282543</v>
+        <v>0.2668563105204045</v>
       </c>
       <c r="D33">
-        <v>-0.03722356566491206</v>
+        <v>-0.2518514926710265</v>
       </c>
       <c r="E33">
-        <v>-0.05288810783684434</v>
+        <v>-0.3500364628558876</v>
       </c>
       <c r="F33">
-        <v>-0.05241441513275902</v>
+        <v>-0.3306513664600587</v>
       </c>
       <c r="G33">
-        <v>-0.0621818426053389</v>
+        <v>-0.3403380647824267</v>
       </c>
       <c r="H33">
-        <v>-0.0340200094610359</v>
+        <v>-0.2036002909234967</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.0367773184695708</v>
+        <v>-0.002814529307319733</v>
       </c>
       <c r="C34">
-        <v>0.02855464010605508</v>
+        <v>0.002144520886448632</v>
       </c>
       <c r="D34">
-        <v>-0.03077015954506688</v>
+        <v>-0.004466159142311126</v>
       </c>
       <c r="E34">
-        <v>-0.05531314484311348</v>
+        <v>-0.006221970878213698</v>
       </c>
       <c r="F34">
-        <v>-0.04651103376997245</v>
+        <v>-0.004795044219249929</v>
       </c>
       <c r="G34">
-        <v>-0.0665255328340921</v>
+        <v>-0.006527211591332573</v>
       </c>
       <c r="H34">
-        <v>-0.0476812092210779</v>
+        <v>-0.003288398029477898</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.03809890248214327</v>
+        <v>-0.003796148797168149</v>
       </c>
       <c r="C35">
-        <v>0.02329008530731584</v>
+        <v>0.003531984713236451</v>
       </c>
       <c r="D35">
-        <v>-0.03512600991503343</v>
+        <v>-0.004502600366371768</v>
       </c>
       <c r="E35">
-        <v>-0.06454303121411581</v>
+        <v>-0.007287774656104591</v>
       </c>
       <c r="F35">
-        <v>-0.03709299431275282</v>
+        <v>-0.005221245441931379</v>
       </c>
       <c r="G35">
-        <v>-0.07009601904641254</v>
+        <v>-0.007390779884391509</v>
       </c>
       <c r="H35">
-        <v>-0.04524590163763528</v>
+        <v>-0.004593386237143329</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.003923981453767668</v>
+        <v>-0.1590238075924882</v>
       </c>
       <c r="C36">
-        <v>0.004009131730292586</v>
+        <v>0.1828357523485099</v>
       </c>
       <c r="D36">
-        <v>-0.002892884609270093</v>
+        <v>-0.1562596997071813</v>
       </c>
       <c r="E36">
-        <v>-0.00683473723125722</v>
+        <v>-0.2551014396036663</v>
       </c>
       <c r="F36">
-        <v>-0.005416542302680212</v>
+        <v>-0.2033300495028682</v>
       </c>
       <c r="G36">
-        <v>-0.007152894340939991</v>
+        <v>-0.2998035176564012</v>
       </c>
       <c r="H36">
-        <v>-0.004578642278813681</v>
+        <v>-0.120872470445222</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.004232189218651371</v>
+        <v>-0.003617102734609948</v>
       </c>
       <c r="C37">
-        <v>0.002825037503273292</v>
+        <v>0.003734012772897386</v>
       </c>
       <c r="D37">
-        <v>-0.003666305178480368</v>
+        <v>-0.003127685423853214</v>
       </c>
       <c r="E37">
-        <v>-0.005740343985949065</v>
+        <v>-0.0072332603204367</v>
       </c>
       <c r="F37">
-        <v>-0.004925196243859922</v>
+        <v>-0.006086733063172336</v>
       </c>
       <c r="G37">
-        <v>-0.008426833459006597</v>
+        <v>-0.006868000144318541</v>
       </c>
       <c r="H37">
-        <v>-0.006026528320504862</v>
+        <v>-0.004439163503570228</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.004300544427702981</v>
+        <v>-0.2210008056346062</v>
       </c>
       <c r="C38">
-        <v>0.003539392797346723</v>
+        <v>0.4157385882387587</v>
       </c>
       <c r="D38">
-        <v>-0.004783171715303264</v>
+        <v>-0.3665897217665499</v>
       </c>
       <c r="E38">
-        <v>-0.006364758171705874</v>
+        <v>-0.276216588654686</v>
       </c>
       <c r="F38">
-        <v>-0.004143184058202973</v>
+        <v>-0.2692588694707274</v>
       </c>
       <c r="G38">
-        <v>-0.007767381309870218</v>
+        <v>-0.2992848370828271</v>
       </c>
       <c r="H38">
-        <v>-0.005954233861929058</v>
+        <v>-0.2800306693560122</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.003844274598338216</v>
+        <v>-0.03253938814966505</v>
       </c>
       <c r="C39">
-        <v>0.003469225346362736</v>
+        <v>0.0364144261628607</v>
       </c>
       <c r="D39">
-        <v>-0.003930913503036356</v>
+        <v>-0.03475483974453367</v>
       </c>
       <c r="E39">
-        <v>-0.005996705415767851</v>
+        <v>-0.06074236280334549</v>
       </c>
       <c r="F39">
-        <v>-0.004989278046894772</v>
+        <v>-0.05103985690249014</v>
       </c>
       <c r="G39">
-        <v>-0.007327985770493882</v>
+        <v>-0.06291090881917392</v>
       </c>
       <c r="H39">
-        <v>-0.005173968363540694</v>
+        <v>-0.02978575162269325</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.004000068864838418</v>
+        <v>-0.2539177980857261</v>
       </c>
       <c r="C40">
-        <v>0.003293315301114839</v>
+        <v>0.3217300193169496</v>
       </c>
       <c r="D40">
-        <v>-0.004078439243939071</v>
+        <v>-0.3505360993113723</v>
       </c>
       <c r="E40">
-        <v>-0.006273412409852048</v>
+        <v>-0.4368320967479603</v>
       </c>
       <c r="F40">
-        <v>-0.004759705505256629</v>
+        <v>-0.2555998855654039</v>
       </c>
       <c r="G40">
-        <v>-0.007392508535559832</v>
+        <v>-0.4109801973136321</v>
       </c>
       <c r="H40">
-        <v>-0.005629605707165799</v>
+        <v>-0.0797780579519471</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.3382487474463152</v>
+        <v>-0.1129137880792975</v>
       </c>
       <c r="C41">
-        <v>0.3184929221107888</v>
+        <v>0.09669237195847653</v>
       </c>
       <c r="D41">
-        <v>-0.2962837952961916</v>
+        <v>-0.1375530580783168</v>
       </c>
       <c r="E41">
-        <v>-0.3487776121019754</v>
+        <v>-0.2080670675834391</v>
       </c>
       <c r="F41">
-        <v>-0.4702349454633222</v>
+        <v>-0.1747455909556864</v>
       </c>
       <c r="G41">
-        <v>-0.473539950105501</v>
+        <v>-0.2504137107598787</v>
       </c>
       <c r="H41">
-        <v>-0.3055612892289409</v>
+        <v>-0.1513503460647286</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.004792904647169006</v>
+        <v>-0.21751829293772</v>
       </c>
       <c r="C42">
-        <v>0.002807152602611302</v>
+        <v>0.1855643843830037</v>
       </c>
       <c r="D42">
-        <v>-0.004885815812936135</v>
+        <v>-0.2042833386896206</v>
       </c>
       <c r="E42">
-        <v>-0.006838409909417624</v>
+        <v>-0.3399569459854591</v>
       </c>
       <c r="F42">
-        <v>-0.004863404714326977</v>
+        <v>-0.3600369638922267</v>
       </c>
       <c r="G42">
-        <v>-0.008913116863503297</v>
+        <v>-0.4612246485889169</v>
       </c>
       <c r="H42">
-        <v>-0.005363088510519439</v>
+        <v>-0.07902059068336176</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.004057235020916107</v>
+        <v>-0.0970504528818385</v>
       </c>
       <c r="C43">
-        <v>0.003426496285319271</v>
+        <v>0.0913799622773474</v>
       </c>
       <c r="D43">
-        <v>-0.004013527743922785</v>
+        <v>-0.1529919541355831</v>
       </c>
       <c r="E43">
-        <v>-0.006751157899594047</v>
+        <v>-0.2252365196695842</v>
       </c>
       <c r="F43">
-        <v>-0.005639900534603428</v>
+        <v>-0.1885121753732476</v>
       </c>
       <c r="G43">
-        <v>-0.007020282608896816</v>
+        <v>-0.1979055172232536</v>
       </c>
       <c r="H43">
-        <v>-0.004828539435742381</v>
+        <v>-0.1022449896113933</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.004279137407530041</v>
+        <v>-0.1136992326978907</v>
       </c>
       <c r="C44">
-        <v>0.002181053633621784</v>
+        <v>0.1054064579650487</v>
       </c>
       <c r="D44">
-        <v>-0.003925435714169887</v>
+        <v>-0.1192873514652345</v>
       </c>
       <c r="E44">
-        <v>-0.005944860439996118</v>
+        <v>-0.2597957491609658</v>
       </c>
       <c r="F44">
-        <v>-0.00606523902987523</v>
+        <v>-0.1530520172216333</v>
       </c>
       <c r="G44">
-        <v>-0.007889240432957982</v>
+        <v>-0.2674598738170364</v>
       </c>
       <c r="H44">
-        <v>-0.005787314440239418</v>
+        <v>-0.08249386637380118</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.004639482804901398</v>
+        <v>-0.133058010624649</v>
       </c>
       <c r="C45">
-        <v>0.002880228818934759</v>
+        <v>0.181589481457841</v>
       </c>
       <c r="D45">
-        <v>-0.00419823704877655</v>
+        <v>-0.1732168292454413</v>
       </c>
       <c r="E45">
-        <v>-0.006952647852905548</v>
+        <v>-0.2202943122088502</v>
       </c>
       <c r="F45">
-        <v>-0.004501123980901839</v>
+        <v>-0.2377179969655087</v>
       </c>
       <c r="G45">
-        <v>-0.008677550969569799</v>
+        <v>-0.2591754690552279</v>
       </c>
       <c r="H45">
-        <v>-0.005799924190183626</v>
+        <v>-0.06710088857546444</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.1487177781651508</v>
+        <v>-0.003299565210349061</v>
       </c>
       <c r="C46">
-        <v>0.1449366229407012</v>
+        <v>0.003582415024030096</v>
       </c>
       <c r="D46">
-        <v>-0.1180307382408743</v>
+        <v>-0.003881293057738814</v>
       </c>
       <c r="E46">
-        <v>-0.2868847692990342</v>
+        <v>-0.006819899040446788</v>
       </c>
       <c r="F46">
-        <v>-0.198446363257696</v>
+        <v>-0.003574930820357899</v>
       </c>
       <c r="G46">
-        <v>-0.2695021651201689</v>
+        <v>-0.007659091492183374</v>
       </c>
       <c r="H46">
-        <v>-0.1050673346387155</v>
+        <v>-0.004224564099889587</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.003961872587338562</v>
+        <v>-0.003641626575780045</v>
       </c>
       <c r="C47">
-        <v>0.003199040558197805</v>
+        <v>0.00441450983950716</v>
       </c>
       <c r="D47">
-        <v>-0.003823573519428062</v>
+        <v>-0.005248223079304421</v>
       </c>
       <c r="E47">
-        <v>-0.006350867314395096</v>
+        <v>-0.007233739998734282</v>
       </c>
       <c r="F47">
-        <v>-0.004156366525580052</v>
+        <v>-0.004865925163800047</v>
       </c>
       <c r="G47">
-        <v>-0.007879157140183586</v>
+        <v>-0.006222939464800308</v>
       </c>
       <c r="H47">
-        <v>-0.005426214367085197</v>
+        <v>-0.004400339397360517</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.003798352594898297</v>
+        <v>-0.269219421036516</v>
       </c>
       <c r="C48">
-        <v>0.003398799870631466</v>
+        <v>0.4429035715450043</v>
       </c>
       <c r="D48">
-        <v>-0.00341539130475419</v>
+        <v>-0.400702386966654</v>
       </c>
       <c r="E48">
-        <v>-0.005667008550467648</v>
+        <v>-0.276669388918436</v>
       </c>
       <c r="F48">
-        <v>-0.004790883413583576</v>
+        <v>-0.4019004827565138</v>
       </c>
       <c r="G48">
-        <v>-0.007318651760921962</v>
+        <v>-0.4983917509638443</v>
       </c>
       <c r="H48">
-        <v>-0.005915719983602705</v>
+        <v>-0.1349317240081595</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.004218918447836385</v>
+        <v>-0.003903725497631459</v>
       </c>
       <c r="C49">
-        <v>0.004121680332704289</v>
+        <v>0.004668218057924936</v>
       </c>
       <c r="D49">
-        <v>-0.003597993399662524</v>
+        <v>-0.003182877568345663</v>
       </c>
       <c r="E49">
-        <v>-0.007140874220041778</v>
+        <v>-0.006927101523627825</v>
       </c>
       <c r="F49">
-        <v>-0.004041143150357846</v>
+        <v>-0.004865991012763218</v>
       </c>
       <c r="G49">
-        <v>-0.007985090546401273</v>
+        <v>-0.00783511652575701</v>
       </c>
       <c r="H49">
-        <v>-0.004917627174000272</v>
+        <v>-0.005378985624634404</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.03561308641346015</v>
+        <v>-0.03518763701389051</v>
       </c>
       <c r="C50">
-        <v>0.02359980613282978</v>
+        <v>0.03321105462529955</v>
       </c>
       <c r="D50">
-        <v>-0.03096336130259117</v>
+        <v>-0.0371321959587035</v>
       </c>
       <c r="E50">
-        <v>-0.04923963935488069</v>
+        <v>-0.06398498932468388</v>
       </c>
       <c r="F50">
-        <v>-0.04489143012257373</v>
+        <v>-0.04303408091787963</v>
       </c>
       <c r="G50">
-        <v>-0.06947022698190847</v>
+        <v>-0.06857713262287508</v>
       </c>
       <c r="H50">
-        <v>-0.04894241353043438</v>
+        <v>-0.03902662881501406</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.003855145258315182</v>
+        <v>-0.03067720312040575</v>
       </c>
       <c r="C51">
-        <v>0.002167682623255647</v>
+        <v>0.01951522712274935</v>
       </c>
       <c r="D51">
-        <v>-0.00416010192824254</v>
+        <v>-0.03428642127781369</v>
       </c>
       <c r="E51">
-        <v>-0.005910284714060118</v>
+        <v>-0.05101061249349469</v>
       </c>
       <c r="F51">
-        <v>-0.004813496233485391</v>
+        <v>-0.04642931862981488</v>
       </c>
       <c r="G51">
-        <v>-0.007504398356085992</v>
+        <v>-0.06569763022592477</v>
       </c>
       <c r="H51">
-        <v>-0.005745225005723783</v>
+        <v>-0.04626538327056331</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.02750553480384841</v>
+        <v>-0.1355824138963941</v>
       </c>
       <c r="C52">
-        <v>0.02946291213327218</v>
+        <v>0.1580070674086919</v>
       </c>
       <c r="D52">
-        <v>-0.03321874559115456</v>
+        <v>-0.1715087295332413</v>
       </c>
       <c r="E52">
-        <v>-0.05183859168219603</v>
+        <v>-0.2421579360581297</v>
       </c>
       <c r="F52">
-        <v>-0.0371186278147282</v>
+        <v>-0.1754204716673864</v>
       </c>
       <c r="G52">
-        <v>-0.05502106957110368</v>
+        <v>-0.2801209126550835</v>
       </c>
       <c r="H52">
-        <v>-0.03560743094881356</v>
+        <v>-0.0983684428034086</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.004143845439556229</v>
+        <v>-0.003502676883873674</v>
       </c>
       <c r="C53">
-        <v>0.002692558450703686</v>
+        <v>0.004605557966246727</v>
       </c>
       <c r="D53">
-        <v>-0.004656709025006226</v>
+        <v>-0.00330013301742029</v>
       </c>
       <c r="E53">
-        <v>-0.006586057169509617</v>
+        <v>-0.007859731550382875</v>
       </c>
       <c r="F53">
-        <v>-0.004458614227350046</v>
+        <v>-0.004323092433425988</v>
       </c>
       <c r="G53">
-        <v>-0.007806051497636006</v>
+        <v>-0.006872874489249236</v>
       </c>
       <c r="H53">
-        <v>-0.005384029837451753</v>
+        <v>-0.003785679795431924</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.132549062588947</v>
+        <v>-0.1498724157459662</v>
       </c>
       <c r="C54">
-        <v>0.1642721539516125</v>
+        <v>0.1278818545385855</v>
       </c>
       <c r="D54">
-        <v>-0.1469553945934244</v>
+        <v>-0.1526828481138473</v>
       </c>
       <c r="E54">
-        <v>-0.1997715746160494</v>
+        <v>-0.2914031156842695</v>
       </c>
       <c r="F54">
-        <v>-0.220587579134698</v>
+        <v>-0.2071686594710092</v>
       </c>
       <c r="G54">
-        <v>-0.201388734764206</v>
+        <v>-0.2837700988071598</v>
       </c>
       <c r="H54">
-        <v>-0.1919530913497421</v>
+        <v>-0.1068167108393637</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.003529629026264157</v>
+        <v>-0.247327176846827</v>
       </c>
       <c r="C55">
-        <v>0.003086118242335455</v>
+        <v>0.1355571436806578</v>
       </c>
       <c r="D55">
-        <v>-0.004232621446193844</v>
+        <v>-0.3860374636193056</v>
       </c>
       <c r="E55">
-        <v>-0.005463315080879593</v>
+        <v>-0.5091578903338725</v>
       </c>
       <c r="F55">
-        <v>-0.004251433191852496</v>
+        <v>-0.292644461668653</v>
       </c>
       <c r="G55">
-        <v>-0.007557148793301185</v>
+        <v>-0.3357117202506741</v>
       </c>
       <c r="H55">
-        <v>-0.004760237300901045</v>
+        <v>-0.1142168904213331</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.03404921874034463</v>
+        <v>-0.220565281699535</v>
       </c>
       <c r="C56">
-        <v>0.0211742518950907</v>
+        <v>0.3139556661953459</v>
       </c>
       <c r="D56">
-        <v>-0.04534801691333731</v>
+        <v>-0.3432816029067355</v>
       </c>
       <c r="E56">
-        <v>-0.06096132817731939</v>
+        <v>-0.314348246962949</v>
       </c>
       <c r="F56">
-        <v>-0.04503057301110853</v>
+        <v>-0.3114592724984197</v>
       </c>
       <c r="G56">
-        <v>-0.05314144817967249</v>
+        <v>-0.3779442647736753</v>
       </c>
       <c r="H56">
-        <v>-0.04090897110872974</v>
+        <v>-0.1358477191787335</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.1578344324438108</v>
+        <v>-0.1623638809460506</v>
       </c>
       <c r="C57">
-        <v>0.1318782114055899</v>
+        <v>0.2022853236314849</v>
       </c>
       <c r="D57">
-        <v>-0.1596342236169704</v>
+        <v>-0.1640132795271541</v>
       </c>
       <c r="E57">
-        <v>-0.2925090000461112</v>
+        <v>-0.2792969687656846</v>
       </c>
       <c r="F57">
-        <v>-0.186988065249873</v>
+        <v>-0.1886383084369368</v>
       </c>
       <c r="G57">
-        <v>-0.2701657907615493</v>
+        <v>-0.3029477163758454</v>
       </c>
       <c r="H57">
-        <v>-0.1237408823496132</v>
+        <v>-0.08205880785956041</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.1554428757230294</v>
+        <v>-0.003118647240986341</v>
       </c>
       <c r="C58">
-        <v>0.06899756640569879</v>
+        <v>0.003691646769504045</v>
       </c>
       <c r="D58">
-        <v>-0.1549373161027388</v>
+        <v>-0.004111231073741775</v>
       </c>
       <c r="E58">
-        <v>-0.2389765696862719</v>
+        <v>-0.007014056625747489</v>
       </c>
       <c r="F58">
-        <v>-0.2205627038715754</v>
+        <v>-0.004492253998571612</v>
       </c>
       <c r="G58">
-        <v>-0.2776555905086443</v>
+        <v>-0.006293444599257156</v>
       </c>
       <c r="H58">
-        <v>-0.1735982821218003</v>
+        <v>-0.003899775999387399</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.00438248295181595</v>
+        <v>-0.1069129707941345</v>
       </c>
       <c r="C59">
-        <v>0.002025052536082954</v>
+        <v>0.1412705662658595</v>
       </c>
       <c r="D59">
-        <v>-0.004729839321879249</v>
+        <v>-0.1750708343567193</v>
       </c>
       <c r="E59">
-        <v>-0.005844688755631959</v>
+        <v>-0.2075822927859177</v>
       </c>
       <c r="F59">
-        <v>-0.00484676630860898</v>
+        <v>-0.1636599028673675</v>
       </c>
       <c r="G59">
-        <v>-0.008157770188584313</v>
+        <v>-0.2393108574028093</v>
       </c>
       <c r="H59">
-        <v>-0.006464253514404345</v>
+        <v>-0.1032599141527826</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.004675756081246605</v>
+        <v>-0.2327212682348851</v>
       </c>
       <c r="C60">
-        <v>0.002853571837819836</v>
+        <v>0.2787867714604244</v>
       </c>
       <c r="D60">
-        <v>-0.004437349704209023</v>
+        <v>-0.1239936130325064</v>
       </c>
       <c r="E60">
-        <v>-0.00684909417961595</v>
+        <v>-0.3603073829423475</v>
       </c>
       <c r="F60">
-        <v>-0.006154082732090428</v>
+        <v>-0.3180677030107704</v>
       </c>
       <c r="G60">
-        <v>-0.007853753363614472</v>
+        <v>-0.4683308509691625</v>
       </c>
       <c r="H60">
-        <v>-0.005567231870608647</v>
+        <v>-0.1615925489837136</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.003709230480070998</v>
+        <v>-0.0380500726426205</v>
       </c>
       <c r="C61">
-        <v>0.002790341088367764</v>
+        <v>0.03067329023979545</v>
       </c>
       <c r="D61">
-        <v>-0.00521065451415028</v>
+        <v>-0.03545140791502251</v>
       </c>
       <c r="E61">
-        <v>-0.006595250896247006</v>
+        <v>-0.06968996967241069</v>
       </c>
       <c r="F61">
-        <v>-0.004862683300190096</v>
+        <v>-0.04808659368203388</v>
       </c>
       <c r="G61">
-        <v>-0.006240611133016234</v>
+        <v>-0.06925432420468162</v>
       </c>
       <c r="H61">
-        <v>-0.00467574099222201</v>
+        <v>-0.04173142030041916</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.004033228976317018</v>
+        <v>-0.003542351660846091</v>
       </c>
       <c r="C62">
-        <v>0.003625789833415674</v>
+        <v>0.003706718142200754</v>
       </c>
       <c r="D62">
-        <v>-0.003220285483169477</v>
+        <v>-0.00446963333680308</v>
       </c>
       <c r="E62">
-        <v>-0.006964693776090869</v>
+        <v>-0.006709123553382644</v>
       </c>
       <c r="F62">
-        <v>-0.00473012565055691</v>
+        <v>-0.004393069392630319</v>
       </c>
       <c r="G62">
-        <v>-0.007547214377820247</v>
+        <v>-0.007465622595863536</v>
       </c>
       <c r="H62">
-        <v>-0.005083825800884949</v>
+        <v>-0.00473169720928784</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.003699752512484763</v>
+        <v>-0.2514709020867103</v>
       </c>
       <c r="C63">
-        <v>0.002451775547769812</v>
+        <v>0.437052074432394</v>
       </c>
       <c r="D63">
-        <v>-0.003711498435947384</v>
+        <v>-0.3750779758954776</v>
       </c>
       <c r="E63">
-        <v>-0.006351704420667143</v>
+        <v>-0.2357390723708709</v>
       </c>
       <c r="F63">
-        <v>-0.00469418568784425</v>
+        <v>-0.4867900622834499</v>
       </c>
       <c r="G63">
-        <v>-0.007049436147227859</v>
+        <v>-0.4894424718095551</v>
       </c>
       <c r="H63">
-        <v>-0.005515945509276303</v>
+        <v>-0.1085941905902833</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.1634371996066854</v>
+        <v>-0.003975370626690101</v>
       </c>
       <c r="C64">
-        <v>0.1847044920687621</v>
+        <v>0.002631048231254642</v>
       </c>
       <c r="D64">
-        <v>-0.1105482616792361</v>
+        <v>-0.004201300843660092</v>
       </c>
       <c r="E64">
-        <v>-0.2550322689348972</v>
+        <v>-0.007122777421558688</v>
       </c>
       <c r="F64">
-        <v>-0.2056145071819434</v>
+        <v>-0.005867371239672844</v>
       </c>
       <c r="G64">
-        <v>-0.2938392055673005</v>
+        <v>-0.007965756665230811</v>
       </c>
       <c r="H64">
-        <v>-0.1396058666610354</v>
+        <v>-0.00493156385821229</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.03187074354019086</v>
+        <v>-0.003838704390363138</v>
       </c>
       <c r="C65">
-        <v>0.02878946317885587</v>
+        <v>0.003014617177375959</v>
       </c>
       <c r="D65">
-        <v>-0.02847438975676586</v>
+        <v>-0.004082188016986885</v>
       </c>
       <c r="E65">
-        <v>-0.0481202376397749</v>
+        <v>-0.007042344290171852</v>
       </c>
       <c r="F65">
-        <v>-0.04255487081473319</v>
+        <v>-0.005813379039399311</v>
       </c>
       <c r="G65">
-        <v>-0.06262765602426519</v>
+        <v>-0.007345619255427645</v>
       </c>
       <c r="H65">
-        <v>-0.04772814259461047</v>
+        <v>-0.005229174569629506</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.3199309368132356</v>
+        <v>-0.004255589920717903</v>
       </c>
       <c r="C66">
-        <v>0.3662145638684136</v>
+        <v>0.002766219108176233</v>
       </c>
       <c r="D66">
-        <v>-0.2822541450588631</v>
+        <v>-0.004836111337694469</v>
       </c>
       <c r="E66">
-        <v>-0.4314106669096211</v>
+        <v>-0.00695734315236386</v>
       </c>
       <c r="F66">
-        <v>-0.4135457978953271</v>
+        <v>-0.005573205958509916</v>
       </c>
       <c r="G66">
-        <v>-0.6873839573663962</v>
+        <v>-0.008962643499702461</v>
       </c>
       <c r="H66">
-        <v>-0.03071864807437935</v>
+        <v>-0.004537980599949053</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.3317229329212261</v>
+        <v>-0.1160580274719813</v>
       </c>
       <c r="C67">
-        <v>0.3068836078495196</v>
+        <v>0.1581555710300913</v>
       </c>
       <c r="D67">
-        <v>-0.3132374434782283</v>
+        <v>-0.1179077950886941</v>
       </c>
       <c r="E67">
-        <v>-0.4654458715864814</v>
+        <v>-0.2275287516163587</v>
       </c>
       <c r="F67">
-        <v>-0.4932669633506659</v>
+        <v>-0.2418665133707543</v>
       </c>
       <c r="G67">
-        <v>-0.3888557967407998</v>
+        <v>-0.2120097417678694</v>
       </c>
       <c r="H67">
-        <v>-0.2097919739663724</v>
+        <v>-0.09924811601343028</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.3588554067450126</v>
+        <v>-0.002722745026338594</v>
       </c>
       <c r="C68">
-        <v>0.5928626306348515</v>
+        <v>0.002629843553725981</v>
       </c>
       <c r="D68">
-        <v>-0.4170672003528681</v>
+        <v>-0.002934511370793586</v>
       </c>
       <c r="E68">
-        <v>-0.3768103123006259</v>
+        <v>-0.005724966238001775</v>
       </c>
       <c r="F68">
-        <v>-0.5820865834207745</v>
+        <v>-0.004720822611877163</v>
       </c>
       <c r="G68">
-        <v>-0.5025110414304799</v>
+        <v>-0.007351101563525548</v>
       </c>
       <c r="H68">
-        <v>-0.1353956921433193</v>
+        <v>-0.003247015168012985</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.1574121292469688</v>
+        <v>-0.2169340079716784</v>
       </c>
       <c r="C69">
-        <v>0.1437143163097012</v>
+        <v>0.2834859609974436</v>
       </c>
       <c r="D69">
-        <v>-0.1564183947181493</v>
+        <v>-0.337647332551014</v>
       </c>
       <c r="E69">
-        <v>-0.2398005462216281</v>
+        <v>-0.3617308962562339</v>
       </c>
       <c r="F69">
-        <v>-0.2187529209324292</v>
+        <v>-0.2759336288088281</v>
       </c>
       <c r="G69">
-        <v>-0.276313407246784</v>
+        <v>-0.3474493755149318</v>
       </c>
       <c r="H69">
-        <v>-0.150293962254762</v>
+        <v>-0.1381423878543904</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.2946096529280489</v>
+        <v>-0.244163990030396</v>
       </c>
       <c r="C70">
-        <v>0.4028907605300035</v>
+        <v>0.2937815794694867</v>
       </c>
       <c r="D70">
-        <v>-0.271858405353172</v>
+        <v>-0.2039521459499639</v>
       </c>
       <c r="E70">
-        <v>-0.1710349009827273</v>
+        <v>-0.4096096733936347</v>
       </c>
       <c r="F70">
-        <v>-0.3792158364936064</v>
+        <v>-0.3683624070442337</v>
       </c>
       <c r="G70">
-        <v>-0.6582463541292095</v>
+        <v>-0.4279972323346106</v>
       </c>
       <c r="H70">
-        <v>-0.2397284481508951</v>
+        <v>-0.13522939117359</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.155991554930329</v>
+        <v>-0.003974346801944531</v>
       </c>
       <c r="C71">
-        <v>0.2014030291717867</v>
+        <v>0.003801075025816955</v>
       </c>
       <c r="D71">
-        <v>-0.1412227569901758</v>
+        <v>-0.003607620129170816</v>
       </c>
       <c r="E71">
-        <v>-0.2335831187996954</v>
+        <v>-0.007625247825543286</v>
       </c>
       <c r="F71">
-        <v>-0.1726362054486007</v>
+        <v>-0.004577246189393489</v>
       </c>
       <c r="G71">
-        <v>-0.2764220917799292</v>
+        <v>-0.00840927398965959</v>
       </c>
       <c r="H71">
-        <v>-0.1612963480384356</v>
+        <v>-0.004510344391926598</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.004244616341361967</v>
+        <v>-0.2460271800996154</v>
       </c>
       <c r="C72">
-        <v>0.003681221095508458</v>
+        <v>0.376086402552637</v>
       </c>
       <c r="D72">
-        <v>-0.003899257323849074</v>
+        <v>-0.3343947118513442</v>
       </c>
       <c r="E72">
-        <v>-0.006676424598463889</v>
+        <v>-0.320658580884811</v>
       </c>
       <c r="F72">
-        <v>-0.005110095184269586</v>
+        <v>-0.3630512045385949</v>
       </c>
       <c r="G72">
-        <v>-0.007748152744545996</v>
+        <v>-0.4018387168517235</v>
       </c>
       <c r="H72">
-        <v>-0.005183074168803143</v>
+        <v>-0.06787496857655739</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.2469254125327314</v>
+        <v>-0.2639798417101109</v>
       </c>
       <c r="C73">
-        <v>0.3368884193901363</v>
+        <v>0.4867924206197904</v>
       </c>
       <c r="D73">
-        <v>-0.3666830459923766</v>
+        <v>-0.3819143419972338</v>
       </c>
       <c r="E73">
-        <v>-0.2661601069231301</v>
+        <v>-0.3243635989525189</v>
       </c>
       <c r="F73">
-        <v>-0.3475988054715025</v>
+        <v>-0.3981261895105438</v>
       </c>
       <c r="G73">
-        <v>-0.4241879655378071</v>
+        <v>-0.4759703462451775</v>
       </c>
       <c r="H73">
-        <v>-0.1911002346519065</v>
+        <v>-0.06559946537503683</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.2829348141892421</v>
+        <v>-0.1974061079858383</v>
       </c>
       <c r="C74">
-        <v>0.2885158437549679</v>
+        <v>0.286280168815198</v>
       </c>
       <c r="D74">
-        <v>-0.2610287869969319</v>
+        <v>-0.2576118076563901</v>
       </c>
       <c r="E74">
-        <v>-0.3672036850276189</v>
+        <v>-0.2656146348297032</v>
       </c>
       <c r="F74">
-        <v>-0.3886563792322168</v>
+        <v>-0.3720897767916957</v>
       </c>
       <c r="G74">
-        <v>-0.5420190765002955</v>
+        <v>-0.389034250932064</v>
       </c>
       <c r="H74">
-        <v>-0.08429935264063955</v>
+        <v>-0.1111478479508195</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.003769166375133558</v>
+        <v>-0.1353135594923482</v>
       </c>
       <c r="C75">
-        <v>0.002485666995926897</v>
+        <v>0.1228039067859964</v>
       </c>
       <c r="D75">
-        <v>-0.003039764715171849</v>
+        <v>-0.1623646254746344</v>
       </c>
       <c r="E75">
-        <v>-0.006634336263340284</v>
+        <v>-0.2583901491824887</v>
       </c>
       <c r="F75">
-        <v>-0.004775043554705105</v>
+        <v>-0.231477724585388</v>
       </c>
       <c r="G75">
-        <v>-0.007592969758743055</v>
+        <v>-0.2318180396712323</v>
       </c>
       <c r="H75">
-        <v>-0.005089783797862913</v>
+        <v>-0.129655443117863</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.004364237007189974</v>
+        <v>-0.003423969081016219</v>
       </c>
       <c r="C76">
-        <v>0.003111526316977713</v>
+        <v>0.002430005514177045</v>
       </c>
       <c r="D76">
-        <v>-0.00422879539333491</v>
+        <v>-0.004271619757508739</v>
       </c>
       <c r="E76">
-        <v>-0.006405786789445727</v>
+        <v>-0.006678892866308541</v>
       </c>
       <c r="F76">
-        <v>-0.005468426769696659</v>
+        <v>-0.005167350165595931</v>
       </c>
       <c r="G76">
-        <v>-0.00814281658259049</v>
+        <v>-0.007474640648097812</v>
       </c>
       <c r="H76">
-        <v>-0.005139029947433288</v>
+        <v>-0.004354375611055655</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.031953766472059</v>
+        <v>-0.003570418491327955</v>
       </c>
       <c r="C77">
-        <v>0.02419419897160783</v>
+        <v>0.004169625934857204</v>
       </c>
       <c r="D77">
-        <v>-0.03608671523682742</v>
+        <v>-0.003706645392637918</v>
       </c>
       <c r="E77">
-        <v>-0.05423785159632241</v>
+        <v>-0.006662370463320821</v>
       </c>
       <c r="F77">
-        <v>-0.04368263411406013</v>
+        <v>-0.005324230620918434</v>
       </c>
       <c r="G77">
-        <v>-0.05970941722202273</v>
+        <v>-0.007695102910740377</v>
       </c>
       <c r="H77">
-        <v>-0.04093790295428013</v>
+        <v>-0.003808352583946053</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.3070542056006471</v>
+        <v>-0.002962072895952321</v>
       </c>
       <c r="C78">
-        <v>0.532411594561284</v>
+        <v>0.003571043917670603</v>
       </c>
       <c r="D78">
-        <v>-0.5126598811622335</v>
+        <v>-0.003153095239258328</v>
       </c>
       <c r="E78">
-        <v>-0.2763215811419782</v>
+        <v>-0.006433971934723127</v>
       </c>
       <c r="F78">
-        <v>-0.3960494636911452</v>
+        <v>-0.004585569479820745</v>
       </c>
       <c r="G78">
-        <v>-0.4714197632228723</v>
+        <v>-0.006765018014066824</v>
       </c>
       <c r="H78">
-        <v>-0.2167769903443702</v>
+        <v>-0.004016431395329563</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.294327031909824</v>
+        <v>-0.202792692191846</v>
       </c>
       <c r="C79">
-        <v>0.3302342396700436</v>
+        <v>0.2170843158709926</v>
       </c>
       <c r="D79">
-        <v>-0.2020198391330044</v>
+        <v>-0.273910564847548</v>
       </c>
       <c r="E79">
-        <v>-0.3756030804185246</v>
+        <v>-0.3049224191378661</v>
       </c>
       <c r="F79">
-        <v>-0.3037213635580526</v>
+        <v>-0.392178128783861</v>
       </c>
       <c r="G79">
-        <v>-0.4367380251997911</v>
+        <v>-0.4353003180254217</v>
       </c>
       <c r="H79">
-        <v>-0.386167132635043</v>
+        <v>-0.0269579638987619</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.004267984998457052</v>
+        <v>-0.003447506415463651</v>
       </c>
       <c r="C80">
-        <v>0.003678325160749523</v>
+        <v>0.002353546578930331</v>
       </c>
       <c r="D80">
-        <v>-0.003844961488876985</v>
+        <v>-0.003752099523657951</v>
       </c>
       <c r="E80">
-        <v>-0.006417464225083086</v>
+        <v>-0.007008463652037182</v>
       </c>
       <c r="F80">
-        <v>-0.004781606902410344</v>
+        <v>-0.00526526464858134</v>
       </c>
       <c r="G80">
-        <v>-0.007783492088987994</v>
+        <v>-0.007167042289102257</v>
       </c>
       <c r="H80">
-        <v>-0.005878548778906699</v>
+        <v>-0.004817441937063853</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.004191138200865602</v>
+        <v>-0.003725694858674839</v>
       </c>
       <c r="C81">
-        <v>0.003848743345894556</v>
+        <v>0.003686120768125029</v>
       </c>
       <c r="D81">
-        <v>-0.003244115348371889</v>
+        <v>-0.003391772423416612</v>
       </c>
       <c r="E81">
-        <v>-0.006173901106758511</v>
+        <v>-0.008260654832925141</v>
       </c>
       <c r="F81">
-        <v>-0.005013107067905128</v>
+        <v>-0.003743165323251133</v>
       </c>
       <c r="G81">
-        <v>-0.007914732149546504</v>
+        <v>-0.007644451507211795</v>
       </c>
       <c r="H81">
-        <v>-0.005731177307368723</v>
+        <v>-0.004393708945972496</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.2500011555477606</v>
+        <v>-0.2152272338196544</v>
       </c>
       <c r="C82">
-        <v>0.2572871893781323</v>
+        <v>0.410977640292006</v>
       </c>
       <c r="D82">
-        <v>-0.2974142878208628</v>
+        <v>-0.3940073621045376</v>
       </c>
       <c r="E82">
-        <v>-0.3516835628556202</v>
+        <v>-0.3806385703797568</v>
       </c>
       <c r="F82">
-        <v>-0.3259697774953328</v>
+        <v>-0.3092880361174892</v>
       </c>
       <c r="G82">
-        <v>-0.3924573086293712</v>
+        <v>-0.3281273074770477</v>
       </c>
       <c r="H82">
-        <v>-0.2492030940935728</v>
+        <v>-0.1433065246823667</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.03435506417483822</v>
+        <v>-0.03406891449213287</v>
       </c>
       <c r="C83">
-        <v>0.02315608206080477</v>
+        <v>0.04069988695929851</v>
       </c>
       <c r="D83">
-        <v>-0.0274454142415289</v>
+        <v>-0.03372688419706103</v>
       </c>
       <c r="E83">
-        <v>-0.04877014207921728</v>
+        <v>-0.05441818281304948</v>
       </c>
       <c r="F83">
-        <v>-0.03813396937654774</v>
+        <v>-0.04326183971912673</v>
       </c>
       <c r="G83">
-        <v>-0.07256466166983322</v>
+        <v>-0.06722548877973133</v>
       </c>
       <c r="H83">
-        <v>-0.04945065893099024</v>
+        <v>-0.04573363957475296</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.004740225652482611</v>
+        <v>-0.003230856746840071</v>
       </c>
       <c r="C84">
-        <v>0.002188643474031406</v>
+        <v>0.002763611736218623</v>
       </c>
       <c r="D84">
-        <v>-0.004893204666642411</v>
+        <v>-0.004569914095812193</v>
       </c>
       <c r="E84">
-        <v>-0.006397259683021608</v>
+        <v>-0.005826080863597203</v>
       </c>
       <c r="F84">
-        <v>-0.005520944046308874</v>
+        <v>-0.004473936472849938</v>
       </c>
       <c r="G84">
-        <v>-0.008364787530081309</v>
+        <v>-0.007989358622333392</v>
       </c>
       <c r="H84">
-        <v>-0.006167250632125761</v>
+        <v>-0.003704593378466535</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.003799216024503983</v>
+        <v>-0.00411886238665978</v>
       </c>
       <c r="C85">
-        <v>0.00394918471996497</v>
+        <v>0.004889779941243414</v>
       </c>
       <c r="D85">
-        <v>-0.00305446382074416</v>
+        <v>-0.004592436795237631</v>
       </c>
       <c r="E85">
-        <v>-0.006997791189484073</v>
+        <v>-0.007261653182764415</v>
       </c>
       <c r="F85">
-        <v>-0.005086333954047489</v>
+        <v>-0.004407912599480273</v>
       </c>
       <c r="G85">
-        <v>-0.006903649344232547</v>
+        <v>-0.008127224037110818</v>
       </c>
       <c r="H85">
-        <v>-0.004440659386774779</v>
+        <v>-0.00466404931877822</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.003957141634475073</v>
+        <v>-0.004128166642593972</v>
       </c>
       <c r="C86">
-        <v>0.003181471792378175</v>
+        <v>0.003578908360468065</v>
       </c>
       <c r="D86">
-        <v>-0.003749346766578998</v>
+        <v>-0.004336682599174778</v>
       </c>
       <c r="E86">
-        <v>-0.006265807969488574</v>
+        <v>-0.007548940395497831</v>
       </c>
       <c r="F86">
-        <v>-0.004266797012284735</v>
+        <v>-0.005510924294723626</v>
       </c>
       <c r="G86">
-        <v>-0.007979927479593266</v>
+        <v>-0.008412058621912731</v>
       </c>
       <c r="H86">
-        <v>-0.005357865198307528</v>
+        <v>-0.003946669232818598</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.004810708978565153</v>
+        <v>-0.0299160206735525</v>
       </c>
       <c r="C87">
-        <v>0.003359832535481926</v>
+        <v>0.03660723953222212</v>
       </c>
       <c r="D87">
-        <v>-0.004457052180708108</v>
+        <v>-0.03271682228378665</v>
       </c>
       <c r="E87">
-        <v>-0.00663983634906694</v>
+        <v>-0.0673890303695379</v>
       </c>
       <c r="F87">
-        <v>-0.004848770211926269</v>
+        <v>-0.0337648416898845</v>
       </c>
       <c r="G87">
-        <v>-0.008665163373394782</v>
+        <v>-0.0609552269626247</v>
       </c>
       <c r="H87">
-        <v>-0.00611033783321226</v>
+        <v>-0.02853939879057141</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.1562110032085097</v>
+        <v>-0.00411148401313968</v>
       </c>
       <c r="C88">
-        <v>0.1588764979133093</v>
+        <v>0.003699655150483799</v>
       </c>
       <c r="D88">
-        <v>-0.1382952683003541</v>
+        <v>-0.003815923627478479</v>
       </c>
       <c r="E88">
-        <v>-0.2342712020913269</v>
+        <v>-0.006997668852747553</v>
       </c>
       <c r="F88">
-        <v>-0.1973923291962194</v>
+        <v>-0.005196176701769414</v>
       </c>
       <c r="G88">
-        <v>-0.2605637012809451</v>
+        <v>-0.008174502331970628</v>
       </c>
       <c r="H88">
-        <v>-0.1942650041058457</v>
+        <v>-0.005746761104334548</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.03697122594958275</v>
+        <v>-0.003760629403449189</v>
       </c>
       <c r="C89">
-        <v>0.02890515252755345</v>
+        <v>0.004293530907976538</v>
       </c>
       <c r="D89">
-        <v>-0.03926507562356801</v>
+        <v>-0.00399435162355512</v>
       </c>
       <c r="E89">
-        <v>-0.05951718935700375</v>
+        <v>-0.00708846955134533</v>
       </c>
       <c r="F89">
-        <v>-0.04076841299107537</v>
+        <v>-0.005591273354325651</v>
       </c>
       <c r="G89">
-        <v>-0.06514055860539113</v>
+        <v>-0.007112179317737299</v>
       </c>
       <c r="H89">
-        <v>-0.04385065410323769</v>
+        <v>-0.004482876974096921</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.2574517007701595</v>
+        <v>-0.1329835955085581</v>
       </c>
       <c r="C90">
-        <v>0.217290147659911</v>
+        <v>0.1437323265442572</v>
       </c>
       <c r="D90">
-        <v>-0.2068658877311032</v>
+        <v>-0.1225215529149133</v>
       </c>
       <c r="E90">
-        <v>-0.3602212513909152</v>
+        <v>-0.1861343501996315</v>
       </c>
       <c r="F90">
-        <v>-0.3972364694967978</v>
+        <v>-0.2193992490997937</v>
       </c>
       <c r="G90">
-        <v>-0.4773247443187851</v>
+        <v>-0.3177207664131527</v>
       </c>
       <c r="H90">
-        <v>-0.1817739488374838</v>
+        <v>-0.09755768318450983</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.02908030371171196</v>
+        <v>-0.1485847723032767</v>
       </c>
       <c r="C91">
-        <v>0.02397407042843446</v>
+        <v>0.1672452689247353</v>
       </c>
       <c r="D91">
-        <v>-0.03503985947925457</v>
+        <v>-0.1592237823598369</v>
       </c>
       <c r="E91">
-        <v>-0.05097698299758462</v>
+        <v>-0.2321975734310167</v>
       </c>
       <c r="F91">
-        <v>-0.04668484662692546</v>
+        <v>-0.1753820127300374</v>
       </c>
       <c r="G91">
-        <v>-0.0563072958243503</v>
+        <v>-0.2691710976845105</v>
       </c>
       <c r="H91">
-        <v>-0.03498760375529463</v>
+        <v>-0.1680892130863361</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.003795289262373925</v>
+        <v>-0.004472505450703016</v>
       </c>
       <c r="C92">
-        <v>0.003516835835342574</v>
+        <v>0.00241934292864609</v>
       </c>
       <c r="D92">
-        <v>-0.003817336952814008</v>
+        <v>-0.005228657738920582</v>
       </c>
       <c r="E92">
-        <v>-0.006115991362012496</v>
+        <v>-0.007774315925873438</v>
       </c>
       <c r="F92">
-        <v>-0.004210145498301622</v>
+        <v>-0.005755135632295499</v>
       </c>
       <c r="G92">
-        <v>-0.007923876665930038</v>
+        <v>-0.008424772947476202</v>
       </c>
       <c r="H92">
-        <v>-0.004699070791105919</v>
+        <v>-0.004931215526896848</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.1391108099093806</v>
+        <v>-0.003535085830496765</v>
       </c>
       <c r="C93">
-        <v>0.1221509172889669</v>
+        <v>0.00390079988336817</v>
       </c>
       <c r="D93">
-        <v>-0.1791349011025383</v>
+        <v>-0.002646715701264803</v>
       </c>
       <c r="E93">
-        <v>-0.1993506297813648</v>
+        <v>-0.007006297940109076</v>
       </c>
       <c r="F93">
-        <v>-0.1596862940678634</v>
+        <v>-0.00490873026012964</v>
       </c>
       <c r="G93">
-        <v>-0.2811437817342445</v>
+        <v>-0.007844025612664916</v>
       </c>
       <c r="H93">
-        <v>-0.1484979562762043</v>
+        <v>-0.004295167869775881</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.2505480286925905</v>
+        <v>-0.1364680191502269</v>
       </c>
       <c r="C94">
-        <v>0.3477676269188757</v>
+        <v>0.1892232709215993</v>
       </c>
       <c r="D94">
-        <v>-0.309410469363965</v>
+        <v>-0.1905915292087785</v>
       </c>
       <c r="E94">
-        <v>-0.3520841352771433</v>
+        <v>-0.2301465374087705</v>
       </c>
       <c r="F94">
-        <v>-0.3213210213717353</v>
+        <v>-0.2420562711280095</v>
       </c>
       <c r="G94">
-        <v>-0.3927130871688243</v>
+        <v>-0.193209940211285</v>
       </c>
       <c r="H94">
-        <v>-0.1692951868936636</v>
+        <v>-0.1252383619547645</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.003783324171476241</v>
+        <v>-0.2107584963227351</v>
       </c>
       <c r="C95">
-        <v>0.002630406024659339</v>
+        <v>0.3984370074203603</v>
       </c>
       <c r="D95">
-        <v>-0.003345576587893281</v>
+        <v>-0.3621417344987035</v>
       </c>
       <c r="E95">
-        <v>-0.006091974020445706</v>
+        <v>-0.2311794911060008</v>
       </c>
       <c r="F95">
-        <v>-0.006059990214833872</v>
+        <v>-0.3524485812808795</v>
       </c>
       <c r="G95">
-        <v>-0.00727795409705831</v>
+        <v>-0.4076812639313182</v>
       </c>
       <c r="H95">
-        <v>-0.004636746426323292</v>
+        <v>-0.0965080538157285</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.1669931008805642</v>
+        <v>-0.004274541491881874</v>
       </c>
       <c r="C96">
-        <v>0.1477969627187268</v>
+        <v>0.003646633634772169</v>
       </c>
       <c r="D96">
-        <v>-0.1844474267384336</v>
+        <v>-0.003875276651948394</v>
       </c>
       <c r="E96">
-        <v>-0.2514155056385065</v>
+        <v>-0.008091098925925274</v>
       </c>
       <c r="F96">
-        <v>-0.253051115190284</v>
+        <v>-0.004546176357070685</v>
       </c>
       <c r="G96">
-        <v>-0.2426175500665576</v>
+        <v>-0.008773800885456698</v>
       </c>
       <c r="H96">
-        <v>-0.139444835837512</v>
+        <v>-0.004574168374434337</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.004332640631956722</v>
+        <v>-0.1182218593330321</v>
       </c>
       <c r="C97">
-        <v>0.002573794019784698</v>
+        <v>0.1203178660437052</v>
       </c>
       <c r="D97">
-        <v>-0.003369256554493586</v>
+        <v>-0.1547545638428633</v>
       </c>
       <c r="E97">
-        <v>-0.006536248461821523</v>
+        <v>-0.2673751945469569</v>
       </c>
       <c r="F97">
-        <v>-0.005953312999408575</v>
+        <v>-0.2247030647601596</v>
       </c>
       <c r="G97">
-        <v>-0.0077505292856543</v>
+        <v>-0.1744578302964656</v>
       </c>
       <c r="H97">
-        <v>-0.00584048277699635</v>
+        <v>-0.1411157961309687</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.2365048811347455</v>
+        <v>-0.1595670203652041</v>
       </c>
       <c r="C98">
-        <v>0.2568439358069193</v>
+        <v>0.1322999878228956</v>
       </c>
       <c r="D98">
-        <v>-0.2832684148725975</v>
+        <v>-0.1398418293792263</v>
       </c>
       <c r="E98">
-        <v>-0.3544791303583845</v>
+        <v>-0.2465909119981992</v>
       </c>
       <c r="F98">
-        <v>-0.3878873214987308</v>
+        <v>-0.1779854324526912</v>
       </c>
       <c r="G98">
-        <v>-0.3749247190516779</v>
+        <v>-0.3361420467328028</v>
       </c>
       <c r="H98">
-        <v>-0.1845016506534796</v>
+        <v>-0.1379425842679455</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.03724957370923165</v>
+        <v>-0.1228121870874093</v>
       </c>
       <c r="C99">
-        <v>0.01953510662666683</v>
+        <v>0.1375873209067464</v>
       </c>
       <c r="D99">
-        <v>-0.04296906480997542</v>
+        <v>-0.1838493778123032</v>
       </c>
       <c r="E99">
-        <v>-0.05416148858384513</v>
+        <v>-0.2418307998153285</v>
       </c>
       <c r="F99">
-        <v>-0.04595813103418375</v>
+        <v>-0.1504991165075263</v>
       </c>
       <c r="G99">
-        <v>-0.07115205668893564</v>
+        <v>-0.2539876574793693</v>
       </c>
       <c r="H99">
-        <v>-0.03978754510485183</v>
+        <v>-0.1179867069927048</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.004544360009162056</v>
+        <v>-0.2264394637876852</v>
       </c>
       <c r="C100">
-        <v>0.003100381446259629</v>
+        <v>0.432401032322003</v>
       </c>
       <c r="D100">
-        <v>-0.004497020322896432</v>
+        <v>-0.3109578370921989</v>
       </c>
       <c r="E100">
-        <v>-0.006807858355918847</v>
+        <v>-0.2969011951376986</v>
       </c>
       <c r="F100">
-        <v>-0.005274975415660685</v>
+        <v>-0.3249150897455115</v>
       </c>
       <c r="G100">
-        <v>-0.008099160898867901</v>
+        <v>-0.4195666064099914</v>
       </c>
       <c r="H100">
-        <v>-0.005480287564085917</v>
+        <v>-0.1380059400884641</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.004098367211230631</v>
+        <v>-0.004298911461618857</v>
       </c>
       <c r="C101">
-        <v>0.002793080053502137</v>
+        <v>0.005636131484911266</v>
       </c>
       <c r="D101">
-        <v>-0.004433105355667857</v>
+        <v>-0.003135748525165562</v>
       </c>
       <c r="E101">
-        <v>-0.006267857213517159</v>
+        <v>-0.007991684730334452</v>
       </c>
       <c r="F101">
-        <v>-0.004913788342776055</v>
+        <v>-0.006011315062871933</v>
       </c>
       <c r="G101">
-        <v>-0.007367271123814132</v>
+        <v>-0.007702783133198423</v>
       </c>
       <c r="H101">
-        <v>-0.005895352046903381</v>
+        <v>-0.003605576059098596</v>
       </c>
     </row>
   </sheetData>
